--- a/data/users/data.xlsx
+++ b/data/users/data.xlsx
@@ -422,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>science</t>
+          <t>olimpia_science</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -484,6 +484,21 @@
       <c r="K1" s="1" t="inlineStr">
         <is>
           <t>update_time</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>science_1</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>science_2</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>science_3</t>
         </is>
       </c>
     </row>
@@ -541,6 +556,9 @@
           <t>2024-02-01 06:48:08.841590</t>
         </is>
       </c>
+      <c r="L2" s="2" t="n"/>
+      <c r="M2" s="2" t="n"/>
+      <c r="N2" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/users/data.xlsx
+++ b/data/users/data.xlsx
@@ -422,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,7 +518,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>wevkbwkve</t>
+          <t>sdvsd</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
@@ -528,22 +528,22 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>Ташкентская область</t>
+          <t>город Ташкент</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>Город Ангрен</t>
+          <t>Бектемирский район</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
-          <t>МАТЕМАТИКА</t>
+          <t>БИОЛОГИЯ</t>
         </is>
       </c>
       <c r="J2" s="2" t="inlineStr">
@@ -553,12 +553,86 @@
       </c>
       <c r="K2" s="2" t="inlineStr">
         <is>
-          <t>2024-02-01 06:48:08.841590</t>
-        </is>
-      </c>
-      <c r="L2" s="2" t="n"/>
-      <c r="M2" s="2" t="n"/>
+          <t>2024-02-02 03:51:51.295711</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>РОДНОЙ ЯЗЫК</t>
+        </is>
+      </c>
+      <c r="M2" s="2" t="inlineStr">
+        <is>
+          <t>ХИМИЯ</t>
+        </is>
+      </c>
       <c r="N2" s="2" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>5667145916</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>uzbek</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>Jasur</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>998881348444</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>Yunusobod tumani</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="inlineStr">
+        <is>
+          <t>ONA TILI</t>
+        </is>
+      </c>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>2024-02-02 04:02:12.477972</t>
+        </is>
+      </c>
+      <c r="K3" s="2" t="inlineStr">
+        <is>
+          <t>2024-02-02 04:04:43.744076</t>
+        </is>
+      </c>
+      <c r="L3" s="2" t="inlineStr">
+        <is>
+          <t>ONA TILI</t>
+        </is>
+      </c>
+      <c r="M3" s="2" t="inlineStr">
+        <is>
+          <t>BIOLOGIYA</t>
+        </is>
+      </c>
+      <c r="N3" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/users/data.xlsx
+++ b/data/users/data.xlsx
@@ -518,7 +518,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>sdvsd</t>
+          <t>everbver</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
@@ -528,22 +528,22 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>город Ташкент</t>
+          <t>Республика Каракалпакстан</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>Бектемирский район</t>
+          <t>Другой район / город</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
-          <t>БИОЛОГИЯ</t>
+          <t>МАТЕМАТИКА</t>
         </is>
       </c>
       <c r="J2" s="2" t="inlineStr">
@@ -553,24 +553,24 @@
       </c>
       <c r="K2" s="2" t="inlineStr">
         <is>
-          <t>2024-02-02 03:51:51.295711</t>
+          <t>2024-02-02 04:17:26.235382</t>
         </is>
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>РОДНОЙ ЯЗЫК</t>
+          <t>МАТЕМАТИКА</t>
         </is>
       </c>
       <c r="M2" s="2" t="inlineStr">
         <is>
-          <t>ХИМИЯ</t>
+          <t>ФИЗИКА</t>
         </is>
       </c>
       <c r="N2" s="2" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
@@ -584,7 +584,7 @@
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>Jasur</t>
+          <t>Jasur.</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
@@ -594,45 +594,49 @@
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>Toshkent shahri</t>
+          <t>Toshkent viloyati</t>
         </is>
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>Yunusobod tumani</t>
+          <t>Bekobod tumani</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Bekobod shahri</t>
         </is>
       </c>
       <c r="I3" s="2" t="inlineStr">
         <is>
+          <t>TARIX</t>
+        </is>
+      </c>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>2024-02-02 04:14:54.165721</t>
+        </is>
+      </c>
+      <c r="K3" s="2" t="inlineStr">
+        <is>
+          <t>2024-02-02 04:22:01.905259</t>
+        </is>
+      </c>
+      <c r="L3" s="2" t="inlineStr">
+        <is>
           <t>ONA TILI</t>
         </is>
       </c>
-      <c r="J3" s="2" t="inlineStr">
-        <is>
-          <t>2024-02-02 04:02:12.477972</t>
-        </is>
-      </c>
-      <c r="K3" s="2" t="inlineStr">
-        <is>
-          <t>2024-02-02 04:04:43.744076</t>
-        </is>
-      </c>
-      <c r="L3" s="2" t="inlineStr">
-        <is>
-          <t>ONA TILI</t>
-        </is>
-      </c>
       <c r="M3" s="2" t="inlineStr">
         <is>
-          <t>BIOLOGIYA</t>
-        </is>
-      </c>
-      <c r="N3" s="2" t="n"/>
+          <t>MATEMATIKA</t>
+        </is>
+      </c>
+      <c r="N3" s="2" t="inlineStr">
+        <is>
+          <t>KIMYO</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/users/data.xlsx
+++ b/data/users/data.xlsx
@@ -49,12 +49,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -422,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,142 +499,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>5442563505</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>russian</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>everbver</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>+998336589340</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>Республика Каракалпакстан</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>Другой район / город</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>МАТЕМАТИКА</t>
-        </is>
-      </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>2024-02-01 06:37:36.560306</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="inlineStr">
-        <is>
-          <t>2024-02-02 04:17:26.235382</t>
-        </is>
-      </c>
-      <c r="L2" s="2" t="inlineStr">
-        <is>
-          <t>МАТЕМАТИКА</t>
-        </is>
-      </c>
-      <c r="M2" s="2" t="inlineStr">
-        <is>
-          <t>ФИЗИКА</t>
-        </is>
-      </c>
-      <c r="N2" s="2" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>5667145916</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>uzbek</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>Jasur.</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>998881348444</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>Toshkent viloyati</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="inlineStr">
-        <is>
-          <t>Bekobod tumani</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="inlineStr">
-        <is>
-          <t>Bekobod shahri</t>
-        </is>
-      </c>
-      <c r="I3" s="2" t="inlineStr">
-        <is>
-          <t>TARIX</t>
-        </is>
-      </c>
-      <c r="J3" s="2" t="inlineStr">
-        <is>
-          <t>2024-02-02 04:14:54.165721</t>
-        </is>
-      </c>
-      <c r="K3" s="2" t="inlineStr">
-        <is>
-          <t>2024-02-02 04:22:01.905259</t>
-        </is>
-      </c>
-      <c r="L3" s="2" t="inlineStr">
-        <is>
-          <t>ONA TILI</t>
-        </is>
-      </c>
-      <c r="M3" s="2" t="inlineStr">
-        <is>
-          <t>MATEMATIKA</t>
-        </is>
-      </c>
-      <c r="N3" s="2" t="inlineStr">
-        <is>
-          <t>KIMYO</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
